--- a/Amino_Acid_groupings.xlsx
+++ b/Amino_Acid_groupings.xlsx
@@ -1,32 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995"/>
+    <workbookView xWindow="2380" yWindow="320" windowWidth="18700" windowHeight="15160"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="27">
   <si>
     <t>Amino Acid</t>
   </si>
   <si>
-    <t xml:space="preserve">alpha </t>
-  </si>
-  <si>
-    <t>beta</t>
-  </si>
-  <si>
     <t>ala</t>
   </si>
   <si>
@@ -91,13 +90,25 @@
   </si>
   <si>
     <t>group</t>
+  </si>
+  <si>
+    <t>alpha i</t>
+  </si>
+  <si>
+    <t>beta i</t>
+  </si>
+  <si>
+    <t>BASED ON PAPER</t>
+  </si>
+  <si>
+    <t>Wishart et al.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -105,8 +116,30 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -155,6 +188,24 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -165,10 +216,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -178,8 +231,19 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -479,34 +543,42 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:I23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" customWidth="1"/>
+    <col min="1" max="1" width="13.6640625" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="21.75" customHeight="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+      <c r="F1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B2" s="7">
         <v>46.9</v>
@@ -517,10 +589,22 @@
       <c r="D2" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B3" s="5">
         <v>54.8</v>
@@ -531,10 +615,22 @@
       <c r="D3" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="9">
+        <v>45.1</v>
+      </c>
+      <c r="H3" s="9">
+        <v>-1</v>
+      </c>
+      <c r="I3" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B4" s="2">
         <v>55.5</v>
@@ -545,10 +641,22 @@
       <c r="D4" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G4" s="5">
+        <v>52.5</v>
+      </c>
+      <c r="H4" s="13">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="I4" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B5" s="2">
         <v>56.7</v>
@@ -559,10 +667,22 @@
       <c r="D5" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="10">
+        <v>53.1</v>
+      </c>
+      <c r="H5" s="12">
+        <v>38.9</v>
+      </c>
+      <c r="I5" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B6" s="2">
         <v>57.5</v>
@@ -573,10 +693,22 @@
       <c r="D6" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F6" t="s">
+        <v>3</v>
+      </c>
+      <c r="G6" s="10">
+        <v>54.2</v>
+      </c>
+      <c r="H6" s="12">
+        <v>41.1</v>
+      </c>
+      <c r="I6" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B7" s="2">
         <v>58</v>
@@ -587,10 +719,22 @@
       <c r="D7" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="10">
+        <v>55.1</v>
+      </c>
+      <c r="H7" s="12">
+        <v>42.4</v>
+      </c>
+      <c r="I7" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B8" s="3">
         <v>58.1</v>
@@ -601,10 +745,22 @@
       <c r="D8" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F8" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="12">
+        <v>58.2</v>
+      </c>
+      <c r="H8" s="10">
+        <v>28</v>
+      </c>
+      <c r="I8" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B9" s="3">
         <v>58.5</v>
@@ -615,10 +771,22 @@
       <c r="D9" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="3">
+        <v>55.4</v>
+      </c>
+      <c r="H9" s="14">
+        <v>32.9</v>
+      </c>
+      <c r="I9" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B10" s="3">
         <v>58.9</v>
@@ -629,10 +797,22 @@
       <c r="D10" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F10" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" s="3">
+        <v>55.7</v>
+      </c>
+      <c r="H10" s="14">
+        <v>29.4</v>
+      </c>
+      <c r="I10" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B11" s="3">
         <v>58.9</v>
@@ -643,10 +823,22 @@
       <c r="D11" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G11" s="3">
+        <v>56.2</v>
+      </c>
+      <c r="H11" s="14">
+        <v>33.1</v>
+      </c>
+      <c r="I11" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B12" s="3">
         <v>59</v>
@@ -657,10 +849,22 @@
       <c r="D12" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F12" t="s">
+        <v>15</v>
+      </c>
+      <c r="G12" s="3">
+        <v>56</v>
+      </c>
+      <c r="H12" s="14">
+        <v>30.9</v>
+      </c>
+      <c r="I12" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B13" s="3">
         <v>59.1</v>
@@ -671,10 +875,22 @@
       <c r="D13" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F13" t="s">
+        <v>7</v>
+      </c>
+      <c r="G13" s="3">
+        <v>55</v>
+      </c>
+      <c r="H13" s="3">
+        <v>29</v>
+      </c>
+      <c r="I13" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B14" s="3">
         <v>60</v>
@@ -685,10 +901,22 @@
       <c r="D14" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F14" t="s">
+        <v>4</v>
+      </c>
+      <c r="G14" s="3">
+        <v>56.6</v>
+      </c>
+      <c r="H14" s="14">
+        <v>29.9</v>
+      </c>
+      <c r="I14" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B15" s="3">
         <v>61.3</v>
@@ -699,10 +927,22 @@
       <c r="D15" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F15" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15" s="3">
+        <v>57.5</v>
+      </c>
+      <c r="H15" s="14">
+        <v>29.6</v>
+      </c>
+      <c r="I15" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B16" s="8">
         <v>60.9</v>
@@ -713,10 +953,22 @@
       <c r="D16" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F16" t="s">
+        <v>21</v>
+      </c>
+      <c r="G16" s="3">
+        <v>55.4</v>
+      </c>
+      <c r="H16" s="14">
+        <v>41.1</v>
+      </c>
+      <c r="I16" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B17" s="8">
         <v>65.599999999999994</v>
@@ -727,10 +979,22 @@
       <c r="D17" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F17" t="s">
+        <v>16</v>
+      </c>
+      <c r="G17" s="8">
+        <v>58.3</v>
+      </c>
+      <c r="H17" s="15">
+        <v>63.8</v>
+      </c>
+      <c r="I17" s="8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B18" s="4">
         <v>65.5</v>
@@ -741,10 +1005,22 @@
       <c r="D18" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F18" t="s">
+        <v>17</v>
+      </c>
+      <c r="G18" s="8">
+        <v>61.8</v>
+      </c>
+      <c r="H18" s="15">
+        <v>69.8</v>
+      </c>
+      <c r="I18" s="8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B19" s="4">
         <v>66.2</v>
@@ -755,10 +1031,22 @@
       <c r="D19" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F19" t="s">
+        <v>13</v>
+      </c>
+      <c r="G19" s="11">
+        <v>63.3</v>
+      </c>
+      <c r="H19" s="16">
+        <v>32.1</v>
+      </c>
+      <c r="I19" s="11">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B20" s="6">
         <v>60.8</v>
@@ -769,10 +1057,22 @@
       <c r="D20" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F20" t="s">
+        <v>18</v>
+      </c>
+      <c r="G20" s="11">
+        <v>62.2</v>
+      </c>
+      <c r="H20" s="16">
+        <v>32.9</v>
+      </c>
+      <c r="I20" s="11">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B21" s="6">
         <v>61</v>
@@ -783,10 +1083,22 @@
       <c r="D21" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F21" t="s">
+        <v>5</v>
+      </c>
+      <c r="G21" s="6">
+        <v>57.7</v>
+      </c>
+      <c r="H21" s="17">
+        <v>39.6</v>
+      </c>
+      <c r="I21" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B22" s="6">
         <v>64.599999999999994</v>
@@ -795,6 +1107,32 @@
         <v>37.6</v>
       </c>
       <c r="D22" s="1">
+        <v>7</v>
+      </c>
+      <c r="F22" t="s">
+        <v>20</v>
+      </c>
+      <c r="G22" s="6">
+        <v>57.9</v>
+      </c>
+      <c r="H22" s="17">
+        <v>38.799999999999997</v>
+      </c>
+      <c r="I22" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="F23" t="s">
+        <v>8</v>
+      </c>
+      <c r="G23" s="6">
+        <v>61.1</v>
+      </c>
+      <c r="H23" s="17">
+        <v>38.799999999999997</v>
+      </c>
+      <c r="I23" s="6">
         <v>7</v>
       </c>
     </row>
@@ -803,6 +1141,12 @@
     <sortCondition ref="D2:D22"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -812,9 +1156,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -824,8 +1173,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>